--- a/medicine/Mort/Liste_de_monuments_commémoratifs_du_Holodomor/Liste_de_monuments_commémoratifs_du_Holodomor.xlsx
+++ b/medicine/Mort/Liste_de_monuments_commémoratifs_du_Holodomor/Liste_de_monuments_commémoratifs_du_Holodomor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici une liste de mémoriaux et de monuments commémorant le Holodomor et ses millions de victimes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Allemagne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Monument à Munich , (près de la Cathédrale Maria Schutz et Saint-Andreas (en))</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémorial à Windsor
 Mémorial à Winnipeg
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mémorial à Washington[1]
-Monument à Bloomingdale, près de Chicago, Illinois[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mémorial à Washington
+Monument à Bloomingdale, près de Chicago, Illinois</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Monument à Lublin
 Monument à Varsovie</t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Monument de Mhar, oblast de Poltava
 Croix Mémorial à Dnipropetrovsk
@@ -659,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +699,9 @@
           <t>Russie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Monument en Malaya Serdoba, Oblast de Penza, créé en 1992 dans la rue Sovetskaya.
 Monument en Malaya Serdoba, Oblast de Penza, érigé en 1992 sur le cimetière de Gorskoye.</t>
@@ -690,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_monuments_comm%C3%A9moratifs_du_Holodomor</t>
+          <t>Liste_de_monuments_commémoratifs_du_Holodomor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -708,7 +732,9 @@
           <t>Note et Référence</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « List of Holodomor memorials and monuments » (voir la liste des auteurs).
 ↑ (en) « Holodomor Memorial to Ukrainian famine victims is dedicated in Washington, D.C », Kyivpost.com, 8 novembre 2015 (consulté le 28 novembre 2015)
